--- a/external/Canevas/Canevas_tests_independance.xlsx
+++ b/external/Canevas/Canevas_tests_independance.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgodin365-my.sharepoint.com/personal/y_tawfik_cgodin_qc_ca/Documents/Documents/Laboratoires statistiques/Labos/Labo 7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgodin365-my.sharepoint.com/personal/y_tawfik_cgodin_qc_ca/Documents/Documents/Laboratoires statistiques/Canevas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="295" documentId="8_{DA1F7F01-5B95-41CD-A6A5-7CE83EB9AA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AD58342-0598-4683-9359-5AAA96E013E1}"/>
+  <xr:revisionPtr revIDLastSave="336" documentId="8_{DA1F7F01-5B95-41CD-A6A5-7CE83EB9AA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92972CA2-12B0-4610-A302-1B346F4FE0F5}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{70FD5C55-5FD4-407A-A19C-BF3F60E46A57}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{70FD5C55-5FD4-407A-A19C-BF3F60E46A57}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test d'indépendance" sheetId="1" r:id="rId1"/>
+    <sheet name="Test d'indépendance" sheetId="2" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="Échantillon">[1]!_2019_dataset_fr_CARS[#Data]</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">1) Hypothèses : </t>
   </si>
@@ -109,12 +115,33 @@
     <t>3) Calcul du khi-deux observé et du khi-deux critique :</t>
   </si>
   <si>
+    <t xml:space="preserve">4) Règle de décision : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5) Décision et conclusion : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valeur p (aire à droite du khi-deux observé)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Degré de liberté v :  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khi-deux observé                  </t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Seuil de signification </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -123,7 +150,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -133,95 +160,40 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">                                                       Khi-deux critique      </t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Degré de liberté </t>
+      <t>On rejette H</t>
     </r>
     <r>
       <rPr>
-        <i/>
-        <sz val="11"/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>v</t>
+      <t>0</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> : </t>
+      <t xml:space="preserve"> si le khi-deux observé est supérieur à  </t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>f</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <vertAlign val="subscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>t</t>
-    </r>
-  </si>
-  <si>
-    <t>Calcul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                         Khi-deux critique </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                 Calcul du              :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4) Règle de décision : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5) Décision et conclusion : </t>
-  </si>
-  <si>
-    <r>
-      <t>f</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>o</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">X : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y : </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-  </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,12 +236,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,18 +244,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <vertAlign val="subscript"/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <vertAlign val="subscript"/>
-      <sz val="10"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -466,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -476,58 +453,85 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -547,26 +551,32 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,19 +605,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1857375</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>3161665</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="254685" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="ZoneTexte 4">
+            <xdr:cNvPr id="2" name="ZoneTexte 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{366C372E-750B-42D9-860E-7DAF718E7D22}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53DF7D45-7021-4A42-BBCC-1B25477FD2DD}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -615,7 +625,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5038725" y="6461125"/>
+              <a:off x="3161665" y="8787765"/>
               <a:ext cx="254685" cy="175369"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -689,13 +699,13 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="ZoneTexte 4">
+            <xdr:cNvPr id="2" name="ZoneTexte 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{366C372E-750B-42D9-860E-7DAF718E7D22}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53DF7D45-7021-4A42-BBCC-1B25477FD2DD}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -703,7 +713,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5038725" y="6461125"/>
+              <a:off x="3161665" y="8787765"/>
               <a:ext cx="254685" cy="175369"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -758,19 +768,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1717675</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>168275</xdr:rowOff>
+      <xdr:colOff>2762250</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="302326" cy="179729"/>
+    <xdr:ext cx="404470" cy="179729"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="ZoneTexte 5">
+            <xdr:cNvPr id="3" name="ZoneTexte 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9B33C69-DC13-4CF4-B8A3-ECAFF34F4F8F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B78BC0B-B012-4BC6-9E51-61FC2F0A0DA2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -778,171 +788,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4899025" y="6994525"/>
-              <a:ext cx="302326" cy="179729"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSubSup>
-                      <m:sSubSupPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="fr-CA" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubSupPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="fr-CA" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝜒</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="fr-CA" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑂𝑏𝑠</m:t>
-                        </m:r>
-                      </m:sub>
-                      <m:sup>
-                        <m:r>
-                          <a:rPr lang="fr-CA" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>2</m:t>
-                        </m:r>
-                      </m:sup>
-                    </m:sSubSup>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="fr-CA" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="ZoneTexte 5">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9B33C69-DC13-4CF4-B8A3-ECAFF34F4F8F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4899025" y="6994525"/>
-              <a:ext cx="302326" cy="179729"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="fr-CA" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝜒_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-CA" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑂𝑏𝑠^2</a:t>
-              </a:r>
-              <a:endParaRPr lang="fr-CA" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="500073" cy="179729"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="ZoneTexte 6">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{775B47D3-109E-4E14-9479-619ED3A53146}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6299200" y="9023350"/>
-              <a:ext cx="500073" cy="179729"/>
+              <a:off x="2762250" y="7975600"/>
+              <a:ext cx="404470" cy="179729"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1009,7 +856,7 @@
               </a14:m>
               <a:r>
                 <a:rPr lang="fr-CA" sz="1100"/>
-                <a:t>     =</a:t>
+                <a:t>  =</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -1018,10 +865,10 @@
       <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="ZoneTexte 6">
+            <xdr:cNvPr id="3" name="ZoneTexte 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{775B47D3-109E-4E14-9479-619ED3A53146}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B78BC0B-B012-4BC6-9E51-61FC2F0A0DA2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1029,8 +876,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6299200" y="9023350"/>
-              <a:ext cx="500073" cy="179729"/>
+              <a:off x="2762250" y="7975600"/>
+              <a:ext cx="404470" cy="179729"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1072,7 +919,7 @@
               </a:r>
               <a:r>
                 <a:rPr lang="fr-CA" sz="1100"/>
-                <a:t>     =</a:t>
+                <a:t>  =</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -1084,8 +931,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Données_Collisions"/>
+      <sheetName val="TCD_GraviteAge"/>
+      <sheetName val="Test Khi-Deux Age"/>
+      <sheetName val="TCD_GraviteSécurité"/>
+      <sheetName val="Test Khi-Deux Sécurité"/>
+      <sheetName val="Données_Collisions_Test"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1384,346 +1250,307 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E42B13-B37B-42B6-9C60-25816B63DE05}">
-  <dimension ref="A1:I72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC42EE3F-1063-4D28-95FB-A87ECAEA8A2A}">
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.6328125" customWidth="1"/>
-    <col min="2" max="2" width="12.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="1" max="1" width="49" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" customWidth="1"/>
+    <col min="5" max="5" width="5.21875" customWidth="1"/>
+    <col min="6" max="6" width="4.5546875" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="30"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="33"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="37"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="40"/>
-    </row>
-    <row r="5" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+      <c r="C4" s="41"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="43"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
-    </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+        <v>10</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="43"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="21"/>
-    </row>
-    <row r="9" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="16"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="46"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="24"/>
-    </row>
-    <row r="10" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="47"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="49"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="21"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="24"/>
-    </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:9" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="13" t="s">
+      <c r="C11" s="44"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="46"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="47"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="49"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:9" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="12"/>
-    </row>
-    <row r="16" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-    </row>
-    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="34" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="7"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="21"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="20"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="20"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+    </row>
+    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="17"/>
-    </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="37" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="34" t="s">
+      <c r="C34" s="11"/>
+    </row>
+    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="35"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="15"/>
-    </row>
-    <row r="38" spans="1:6" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="36"/>
-      <c r="B38" s="37"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="24"/>
+      <c r="B38" s="25"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="15"/>
-    </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D39" s="15"/>
-    </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="17"/>
-      <c r="D40" s="15"/>
-    </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" s="17"/>
-    </row>
-    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
+    </row>
+    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="18" t="str">
+      <c r="B40" s="11"/>
+    </row>
+    <row r="41" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="11"/>
+    </row>
+    <row r="42" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="13" t="str">
         <f>IF(OR(B40="",B41=""),"",_xlfn.CHISQ.INV.RT(B40,B41))</f>
         <v/>
       </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="7"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-    </row>
-    <row r="45" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" s="6" t="s">
+    </row>
+    <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+    </row>
+    <row r="44" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+    </row>
+    <row r="45" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="15"/>
+    </row>
+    <row r="46" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="8"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="8"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="8"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="8"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="10"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="8"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="8"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="10"/>
-      <c r="F53" s="15"/>
-    </row>
-    <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D56" s="17"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D57" s="15"/>
-    </row>
-    <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D58" s="15"/>
-    </row>
-    <row r="59" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="19"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="21"/>
-    </row>
-    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="22"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="24"/>
-    </row>
-    <row r="65" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="66" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="19"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="21"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="25"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="27"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="25"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="27"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="25"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="27"/>
-    </row>
-    <row r="72" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="22"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="24"/>
+      <c r="B46" s="16" t="str">
+        <f>IF(OR(B45="",B41=""),"",_xlfn.CHISQ.INV.RT(B45,B41))</f>
+        <v/>
+      </c>
+      <c r="E46" s="17"/>
+      <c r="F46" s="18"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="14"/>
+    </row>
+    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="49" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="51" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="19" t="str">
+        <f>B46</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="54" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="26"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="28"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="29"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="31"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="29"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="31"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="29"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="31"/>
+    </row>
+    <row r="60" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="32"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A61:E62"/>
-    <mergeCell ref="A68:E72"/>
+  <mergeCells count="7">
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="A56:E60"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
     <mergeCell ref="C8:I9"/>
     <mergeCell ref="C11:I12"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>